--- a/KM5c_data/DSDP_Site_594.xlsx
+++ b/KM5c_data/DSDP_Site_594.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>10.86766227</v>
+        <v>10.66</v>
       </c>
       <c r="Q2">
-        <v>1.71833773</v>
+        <v>1.921620837741427</v>
       </c>
       <c r="R2">
-        <v>1.08615357</v>
+        <v>1.289436677741428</v>
       </c>
       <c r="S2">
         <v>2.222363636363637</v>
